--- a/Facebook Friends.xlsx
+++ b/Facebook Friends.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siaza\Documents\GGU\MSBA320-FA2017\Course Materials\Data Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25240" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Data Collection" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Data Collection'!$B$1:$W$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -454,16 +454,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,7 +601,7 @@
         <xdr:cNvPr id="3" name="Rounded Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +902,7 @@
         <xdr:cNvPr id="4" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,7 +988,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1248,7 @@
         <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,8 +1256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1778000" y="6851650"/>
-          <a:ext cx="4410075" cy="2781302"/>
+          <a:off x="1943100" y="6616700"/>
+          <a:ext cx="4810125" cy="2686052"/>
           <a:chOff x="257174" y="200024"/>
           <a:chExt cx="4371975" cy="2876552"/>
         </a:xfrm>
@@ -1267,7 +1267,7 @@
           <xdr:cNvPr id="6" name="Picture 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1302,7 +1302,7 @@
           <xdr:cNvPr id="7" name="TextBox 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1358,7 +1358,7 @@
           <xdr:cNvPr id="8" name="TextBox 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1414,7 +1414,7 @@
           <xdr:cNvPr id="9" name="TextBox 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1470,7 +1470,7 @@
           <xdr:cNvPr id="10" name="TextBox 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1570,7 +1570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1622,7 +1622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1847,43 +1847,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CC723"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G349" sqref="G349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.26953125" customWidth="1"/>
-    <col min="25" max="25" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" customWidth="1"/>
-    <col min="30" max="30" width="12.81640625" customWidth="1"/>
+    <col min="30" max="30" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="27" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" s="27" customFormat="1" ht="18">
       <c r="B1" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" s="27" customFormat="1">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" s="4" customFormat="1">
       <c r="A3" s="27"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -1969,7 +1969,7 @@
       <c r="AL3"/>
       <c r="AM3"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:27">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:27">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:27">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:27">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:27">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27">
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:27">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:27">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:27">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27">
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27">
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:27">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:81">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:81">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:81">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:81">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:81">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:81">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:81">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:81">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:81">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:81">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:81">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:81">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:81">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:81">
       <c r="A46" s="26"/>
       <c r="B46" s="1">
         <v>43</v>
@@ -5025,7 +5025,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:81">
       <c r="A47" s="26"/>
       <c r="B47" s="1">
         <v>44</v>
@@ -5152,7 +5152,7 @@
       <c r="CB47" s="26"/>
       <c r="CC47" s="26"/>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:81">
       <c r="A48" s="26"/>
       <c r="B48" s="1">
         <v>45</v>
@@ -5279,7 +5279,7 @@
       <c r="CB48" s="26"/>
       <c r="CC48" s="26"/>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:81">
       <c r="A49" s="26"/>
       <c r="B49" s="1">
         <v>46</v>
@@ -5406,7 +5406,7 @@
       <c r="CB49" s="26"/>
       <c r="CC49" s="26"/>
     </row>
-    <row r="50" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:81" s="29" customFormat="1">
       <c r="A50" s="26"/>
       <c r="B50" s="1">
         <v>47</v>
@@ -5533,7 +5533,7 @@
       <c r="CB50" s="26"/>
       <c r="CC50" s="26"/>
     </row>
-    <row r="51" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:81" s="29" customFormat="1">
       <c r="A51" s="26"/>
       <c r="B51" s="1">
         <v>48</v>
@@ -5660,7 +5660,7 @@
       <c r="CB51" s="26"/>
       <c r="CC51" s="26"/>
     </row>
-    <row r="52" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:81" s="29" customFormat="1">
       <c r="A52" s="26"/>
       <c r="B52" s="1">
         <v>49</v>
@@ -5787,7 +5787,7 @@
       <c r="CB52" s="26"/>
       <c r="CC52" s="26"/>
     </row>
-    <row r="53" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:81" s="29" customFormat="1">
       <c r="A53" s="26"/>
       <c r="B53" s="1">
         <v>50</v>
@@ -5914,7 +5914,7 @@
       <c r="CB53" s="26"/>
       <c r="CC53" s="26"/>
     </row>
-    <row r="54" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:81" s="29" customFormat="1">
       <c r="A54" s="26"/>
       <c r="B54" s="1">
         <v>51</v>
@@ -6041,7 +6041,7 @@
       <c r="CB54" s="26"/>
       <c r="CC54" s="26"/>
     </row>
-    <row r="55" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:81" s="29" customFormat="1">
       <c r="A55" s="26"/>
       <c r="B55" s="1">
         <v>52</v>
@@ -6168,7 +6168,7 @@
       <c r="CB55" s="26"/>
       <c r="CC55" s="26"/>
     </row>
-    <row r="56" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:81" s="29" customFormat="1">
       <c r="A56" s="26"/>
       <c r="B56" s="1">
         <v>53</v>
@@ -6295,7 +6295,7 @@
       <c r="CB56" s="26"/>
       <c r="CC56" s="26"/>
     </row>
-    <row r="57" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:81" s="29" customFormat="1">
       <c r="A57" s="26"/>
       <c r="B57" s="1">
         <v>54</v>
@@ -6422,7 +6422,7 @@
       <c r="CB57" s="26"/>
       <c r="CC57" s="26"/>
     </row>
-    <row r="58" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:81" s="29" customFormat="1">
       <c r="A58" s="26"/>
       <c r="B58" s="1">
         <v>55</v>
@@ -6549,7 +6549,7 @@
       <c r="CB58" s="26"/>
       <c r="CC58" s="26"/>
     </row>
-    <row r="59" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:81" s="29" customFormat="1">
       <c r="A59" s="26"/>
       <c r="B59" s="1">
         <v>56</v>
@@ -6676,7 +6676,7 @@
       <c r="CB59" s="26"/>
       <c r="CC59" s="26"/>
     </row>
-    <row r="60" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:81" s="29" customFormat="1">
       <c r="A60" s="26"/>
       <c r="B60" s="1">
         <v>57</v>
@@ -6803,7 +6803,7 @@
       <c r="CB60" s="26"/>
       <c r="CC60" s="26"/>
     </row>
-    <row r="61" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:81" s="29" customFormat="1">
       <c r="A61" s="26"/>
       <c r="B61" s="1">
         <v>58</v>
@@ -6930,7 +6930,7 @@
       <c r="CB61" s="26"/>
       <c r="CC61" s="26"/>
     </row>
-    <row r="62" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:81" s="29" customFormat="1">
       <c r="A62" s="26"/>
       <c r="B62" s="1">
         <v>59</v>
@@ -7057,7 +7057,7 @@
       <c r="CB62" s="26"/>
       <c r="CC62" s="26"/>
     </row>
-    <row r="63" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:81" s="29" customFormat="1">
       <c r="A63" s="26"/>
       <c r="B63" s="1">
         <v>60</v>
@@ -7184,7 +7184,7 @@
       <c r="CB63" s="26"/>
       <c r="CC63" s="26"/>
     </row>
-    <row r="64" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:81" s="29" customFormat="1">
       <c r="A64" s="26"/>
       <c r="B64" s="1">
         <v>61</v>
@@ -7311,7 +7311,7 @@
       <c r="CB64" s="26"/>
       <c r="CC64" s="26"/>
     </row>
-    <row r="65" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:81" s="29" customFormat="1">
       <c r="A65" s="26"/>
       <c r="B65" s="1">
         <v>62</v>
@@ -7438,7 +7438,7 @@
       <c r="CB65" s="26"/>
       <c r="CC65" s="26"/>
     </row>
-    <row r="66" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:81" s="29" customFormat="1">
       <c r="A66" s="26"/>
       <c r="B66" s="1">
         <v>63</v>
@@ -7565,7 +7565,7 @@
       <c r="CB66" s="26"/>
       <c r="CC66" s="26"/>
     </row>
-    <row r="67" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:81" s="29" customFormat="1">
       <c r="A67" s="26"/>
       <c r="B67" s="1">
         <v>64</v>
@@ -7692,7 +7692,7 @@
       <c r="CB67" s="26"/>
       <c r="CC67" s="26"/>
     </row>
-    <row r="68" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:81" s="29" customFormat="1">
       <c r="A68" s="26"/>
       <c r="B68" s="1">
         <v>65</v>
@@ -7819,7 +7819,7 @@
       <c r="CB68" s="26"/>
       <c r="CC68" s="26"/>
     </row>
-    <row r="69" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:81" s="29" customFormat="1">
       <c r="A69" s="26"/>
       <c r="B69" s="1">
         <v>66</v>
@@ -7946,7 +7946,7 @@
       <c r="CB69" s="26"/>
       <c r="CC69" s="26"/>
     </row>
-    <row r="70" spans="1:81" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:81" s="29" customFormat="1">
       <c r="A70" s="26"/>
       <c r="B70" s="1">
         <v>67</v>
@@ -8073,7 +8073,7 @@
       <c r="CB70" s="26"/>
       <c r="CC70" s="26"/>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:81">
       <c r="A71" s="26"/>
       <c r="B71" s="1">
         <v>68</v>
@@ -8200,7 +8200,7 @@
       <c r="CB71" s="26"/>
       <c r="CC71" s="26"/>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:81">
       <c r="A72" s="26"/>
       <c r="B72" s="1">
         <v>69</v>
@@ -8327,7 +8327,7 @@
       <c r="CB72" s="26"/>
       <c r="CC72" s="26"/>
     </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:81">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="CB73" s="26"/>
       <c r="CC73" s="26"/>
     </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:81">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="CB74" s="26"/>
       <c r="CC74" s="26"/>
     </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:81">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:81">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:81">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:81">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:81">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="80" spans="1:81" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:81">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:23">
       <c r="B81" s="1">
         <v>78</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:23">
       <c r="B82" s="1">
         <v>79</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:23">
       <c r="B83" s="1">
         <v>80</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:23">
       <c r="B84" s="1">
         <v>81</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:23">
       <c r="B85" s="1">
         <v>82</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:23">
       <c r="B86" s="1">
         <v>83</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:23">
       <c r="B87" s="1">
         <v>84</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:23">
       <c r="B88" s="1">
         <v>85</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:23">
       <c r="B89" s="1">
         <v>86</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:23">
       <c r="B90" s="1">
         <v>87</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:23">
       <c r="B91" s="1">
         <v>88</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:23">
       <c r="B92" s="1">
         <v>89</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:23">
       <c r="B93" s="1">
         <v>90</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:23">
       <c r="B94" s="1">
         <v>91</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:23">
       <c r="B95" s="1">
         <v>92</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:23">
       <c r="B96" s="1">
         <v>93</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:23">
       <c r="B97" s="1">
         <v>94</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:23">
       <c r="B98" s="1">
         <v>95</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:23">
       <c r="B99" s="1">
         <v>96</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:23">
       <c r="B100" s="1">
         <v>97</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:23">
       <c r="B101" s="1">
         <v>98</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:23">
       <c r="B102" s="1">
         <v>99</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:23">
       <c r="B103" s="1">
         <v>100</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:23">
       <c r="B104" s="1">
         <v>101</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:23">
       <c r="B105" s="1">
         <v>102</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:23">
       <c r="B106" s="1">
         <v>103</v>
       </c>
@@ -10755,7 +10755,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:23">
       <c r="B107" s="1">
         <v>104</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:23">
       <c r="B108" s="1">
         <v>105</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:23">
       <c r="B109" s="1">
         <v>106</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:23">
       <c r="B110" s="1">
         <v>107</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:23">
       <c r="B111" s="1">
         <v>108</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:23">
       <c r="B112" s="1">
         <v>109</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:23">
       <c r="B113" s="1">
         <v>110</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:23">
       <c r="B114" s="1">
         <v>111</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:23">
       <c r="B115" s="1">
         <v>112</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:23">
       <c r="B116" s="1">
         <v>113</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:23">
       <c r="B117" s="1">
         <v>114</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:23">
       <c r="B118" s="1">
         <v>115</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:23">
       <c r="B119" s="1">
         <v>116</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:23">
       <c r="B120" s="1">
         <v>117</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:23">
       <c r="B121" s="1">
         <v>118</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:23">
       <c r="B122" s="1">
         <v>119</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:23">
       <c r="B123" s="1">
         <v>120</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:23">
       <c r="B124" s="1">
         <v>121</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:23">
       <c r="B125" s="1">
         <v>122</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:23">
       <c r="B126" s="1">
         <v>123</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:23">
       <c r="B127" s="1">
         <v>124</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:23">
       <c r="B128" s="1">
         <v>125</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:23">
       <c r="B129" s="1">
         <v>126</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:23">
       <c r="B130" s="1">
         <v>127</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:23">
       <c r="B131" s="1">
         <v>128</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:23">
       <c r="B132" s="1">
         <v>129</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:23">
       <c r="B133" s="1">
         <v>130</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:23">
       <c r="B134" s="1">
         <v>131</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:23">
       <c r="B135" s="1">
         <v>132</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:23">
       <c r="B136" s="1">
         <v>133</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:23">
       <c r="B137" s="1">
         <v>134</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:23">
       <c r="B138" s="1">
         <v>135</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:23">
       <c r="B139" s="1">
         <v>136</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:23">
       <c r="B140" s="1">
         <v>137</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:23">
       <c r="B141" s="1">
         <v>138</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:23">
       <c r="B142" s="1">
         <v>139</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:23">
       <c r="B143" s="1">
         <v>140</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:23">
       <c r="B144" s="1">
         <v>141</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:23">
       <c r="B145" s="1">
         <v>142</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:23">
       <c r="B146" s="1">
         <v>143</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:23">
       <c r="B147" s="1">
         <v>144</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:23">
       <c r="B148" s="1">
         <v>145</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:23">
       <c r="B149" s="1">
         <v>146</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:23">
       <c r="B150" s="1">
         <v>147</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:23">
       <c r="B151" s="1">
         <v>148</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:23">
       <c r="B152" s="1">
         <v>149</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:23">
       <c r="B153" s="1">
         <v>150</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:23">
       <c r="B154" s="1">
         <v>151</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:23">
       <c r="B155" s="1">
         <v>152</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="156" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:23">
       <c r="B156" s="1">
         <v>153</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:23">
       <c r="B157" s="1">
         <v>154</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:23">
       <c r="B158" s="1">
         <v>155</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:23">
       <c r="B159" s="1">
         <v>156</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:23">
       <c r="B160" s="1">
         <v>157</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:23">
       <c r="B161" s="1">
         <v>158</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:23">
       <c r="B162" s="1">
         <v>159</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:23">
       <c r="B163" s="1">
         <v>160</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:23">
       <c r="B164" s="1">
         <v>161</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:23">
       <c r="B165" s="1">
         <v>162</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:23">
       <c r="B166" s="1">
         <v>163</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:23">
       <c r="B167" s="1">
         <v>164</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:23">
       <c r="B168" s="1">
         <v>165</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:23">
       <c r="B169" s="1">
         <v>166</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="170" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:23">
       <c r="B170" s="1">
         <v>167</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:23">
       <c r="B171" s="1">
         <v>168</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:23">
       <c r="B172" s="1">
         <v>169</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="173" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:23">
       <c r="B173" s="1">
         <v>170</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:23">
       <c r="B174" s="1">
         <v>171</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:23">
       <c r="B175" s="1">
         <v>172</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:23">
       <c r="B176" s="1">
         <v>173</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="177" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:23">
       <c r="B177" s="1">
         <v>174</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:23">
       <c r="B178" s="1">
         <v>175</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:23">
       <c r="B179" s="1">
         <v>176</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:23">
       <c r="B180" s="1">
         <v>177</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:23">
       <c r="B181" s="1">
         <v>178</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:23">
       <c r="B182" s="1">
         <v>179</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:23">
       <c r="B183" s="1">
         <v>180</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:23">
       <c r="B184" s="1">
         <v>181</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:23">
       <c r="B185" s="1">
         <v>182</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:23">
       <c r="B186" s="1">
         <v>183</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:23">
       <c r="B187" s="1">
         <v>184</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="188" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:23">
       <c r="B188" s="1">
         <v>185</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="189" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:23">
       <c r="B189" s="1">
         <v>186</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="190" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:23">
       <c r="B190" s="1">
         <v>187</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="191" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:23">
       <c r="B191" s="1">
         <v>188</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:23">
       <c r="B192" s="1">
         <v>189</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:23">
       <c r="B193" s="1">
         <v>190</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:23">
       <c r="B194" s="1">
         <v>191</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:23">
       <c r="B195" s="1">
         <v>192</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:23">
       <c r="B196" s="1">
         <v>193</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:23">
       <c r="B197" s="1">
         <v>194</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:23">
       <c r="B198" s="1">
         <v>195</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:23">
       <c r="B199" s="1">
         <v>196</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="200" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:23">
       <c r="B200" s="1">
         <v>197</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="201" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:23">
       <c r="B201" s="1">
         <v>198</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="202" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:23">
       <c r="B202" s="1">
         <v>199</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="203" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:23">
       <c r="B203" s="1">
         <v>200</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:23">
       <c r="B204" s="1">
         <v>201</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="205" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:23">
       <c r="B205" s="1">
         <v>202</v>
       </c>
@@ -17487,7 +17487,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="206" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:23">
       <c r="B206" s="1">
         <v>203</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="207" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:23">
       <c r="B207" s="1">
         <v>204</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="208" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:23">
       <c r="B208" s="1">
         <v>205</v>
       </c>
@@ -17691,7 +17691,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="209" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:23">
       <c r="B209" s="1">
         <v>206</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="210" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:23">
       <c r="B210" s="1">
         <v>207</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="211" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:23">
       <c r="B211" s="1">
         <v>208</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:23">
       <c r="B212" s="1">
         <v>209</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="213" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:23">
       <c r="B213" s="1">
         <v>210</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="214" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:23">
       <c r="B214" s="1">
         <v>211</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="215" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:23">
       <c r="B215" s="1">
         <v>212</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="216" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:23">
       <c r="B216" s="1">
         <v>213</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:23">
       <c r="B217" s="1">
         <v>214</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="218" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:23">
       <c r="B218" s="1">
         <v>215</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="219" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:23">
       <c r="B219" s="1">
         <v>216</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="220" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:23">
       <c r="B220" s="1">
         <v>217</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="221" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:23">
       <c r="B221" s="1">
         <v>218</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="222" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:23">
       <c r="B222" s="1">
         <v>219</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:23">
       <c r="B223" s="1">
         <v>220</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="224" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:23">
       <c r="B224" s="1">
         <v>221</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:23">
       <c r="B225" s="1">
         <v>222</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:23">
       <c r="B226" s="1">
         <v>223</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:23">
       <c r="B227" s="1">
         <v>224</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:23">
       <c r="B228" s="1">
         <v>225</v>
       </c>
@@ -19051,7 +19051,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="229" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:23">
       <c r="B229" s="1">
         <v>226</v>
       </c>
@@ -19119,7 +19119,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="230" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:23">
       <c r="B230" s="1">
         <v>227</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="231" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:23">
       <c r="B231" s="1">
         <v>228</v>
       </c>
@@ -19255,7 +19255,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="232" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:23">
       <c r="B232" s="1">
         <v>229</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:23">
       <c r="B233" s="1">
         <v>230</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="234" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:23">
       <c r="B234" s="1">
         <v>231</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="235" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:23">
       <c r="B235" s="1">
         <v>232</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="236" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:23">
       <c r="B236" s="1">
         <v>233</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="237" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:23">
       <c r="B237" s="1">
         <v>234</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:23">
       <c r="B238" s="1">
         <v>235</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="239" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:23">
       <c r="B239" s="1">
         <v>236</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="240" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:23">
       <c r="B240" s="1">
         <v>237</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="241" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:23">
       <c r="B241" s="1">
         <v>238</v>
       </c>
@@ -19935,7 +19935,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="242" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:23">
       <c r="B242" s="1">
         <v>239</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="243" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:23">
       <c r="B243" s="1">
         <v>240</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>4951</v>
       </c>
     </row>
-    <row r="244" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:23">
       <c r="B244" s="1">
         <v>241</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="245" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:23">
       <c r="B245" s="1">
         <v>242</v>
       </c>
@@ -20207,7 +20207,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="246" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:23">
       <c r="B246" s="1">
         <v>243</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="247" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:23">
       <c r="B247" s="1">
         <v>244</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="248" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:23">
       <c r="B248" s="1">
         <v>245</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="249" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:23">
       <c r="B249" s="1">
         <v>246</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="250" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:23">
       <c r="B250" s="1">
         <v>247</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="251" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:23">
       <c r="B251" s="1">
         <v>248</v>
       </c>
@@ -20615,7 +20615,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="252" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:23">
       <c r="B252" s="1">
         <v>249</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="253" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:23">
       <c r="B253" s="1">
         <v>250</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="254" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:23">
       <c r="B254" s="1">
         <v>251</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="255" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:23">
       <c r="B255" s="1">
         <v>252</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="256" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:23">
       <c r="B256" s="1">
         <v>253</v>
       </c>
@@ -20955,7 +20955,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="257" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:23">
       <c r="B257" s="1">
         <v>254</v>
       </c>
@@ -21023,7 +21023,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="258" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:23">
       <c r="B258" s="1">
         <v>255</v>
       </c>
@@ -21091,7 +21091,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="259" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:23">
       <c r="B259" s="1">
         <v>256</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="260" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:23">
       <c r="B260" s="1">
         <v>257</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="261" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:23">
       <c r="B261" s="1">
         <v>258</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="262" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:23">
       <c r="B262" s="1">
         <v>259</v>
       </c>
@@ -21363,7 +21363,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="263" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:23">
       <c r="B263" s="1">
         <v>260</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:23">
       <c r="B264" s="1">
         <v>261</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="265" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:23">
       <c r="B265" s="1">
         <v>262</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="266" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:23">
       <c r="B266" s="1">
         <v>263</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="267" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:23">
       <c r="B267" s="1">
         <v>264</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="268" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:23">
       <c r="B268" s="1">
         <v>265</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="269" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:23">
       <c r="B269" s="1">
         <v>266</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="270" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:23">
       <c r="B270" s="1">
         <v>267</v>
       </c>
@@ -21907,7 +21907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="271" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:23">
       <c r="B271" s="1">
         <v>268</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="272" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:23">
       <c r="B272" s="1">
         <v>269</v>
       </c>
@@ -22043,7 +22043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="273" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:23">
       <c r="B273" s="1">
         <v>270</v>
       </c>
@@ -22111,7 +22111,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="274" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:23">
       <c r="B274" s="1">
         <v>271</v>
       </c>
@@ -22179,7 +22179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="275" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:23">
       <c r="B275" s="1">
         <v>272</v>
       </c>
@@ -22247,7 +22247,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="276" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:23">
       <c r="B276" s="1">
         <v>273</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="277" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:23">
       <c r="B277" s="1">
         <v>274</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="278" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:23">
       <c r="B278" s="1">
         <v>275</v>
       </c>
@@ -22451,7 +22451,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="279" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:23">
       <c r="B279" s="1">
         <v>276</v>
       </c>
@@ -22519,7 +22519,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="280" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:23">
       <c r="B280" s="1">
         <v>277</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="281" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:23">
       <c r="B281" s="1">
         <v>278</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="282" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:23">
       <c r="B282" s="1">
         <v>279</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="283" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:23">
       <c r="B283" s="1">
         <v>280</v>
       </c>
@@ -22791,7 +22791,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="284" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:23">
       <c r="B284" s="1">
         <v>281</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="285" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:23">
       <c r="B285" s="1">
         <v>282</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="286" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:23">
       <c r="B286" s="1">
         <v>283</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="287" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:23">
       <c r="B287" s="1">
         <v>284</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="288" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:23">
       <c r="B288" s="1">
         <v>285</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="289" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:23">
       <c r="B289" s="1">
         <v>286</v>
       </c>
@@ -23199,7 +23199,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="290" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:23">
       <c r="B290" s="1">
         <v>287</v>
       </c>
@@ -23267,7 +23267,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="291" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:23">
       <c r="B291" s="1">
         <v>288</v>
       </c>
@@ -23335,7 +23335,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="292" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:23">
       <c r="B292" s="1">
         <v>289</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="293" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:23">
       <c r="B293" s="1">
         <v>290</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="294" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:23">
       <c r="B294" s="1">
         <v>291</v>
       </c>
@@ -23539,7 +23539,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="295" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:23">
       <c r="B295" s="1">
         <v>292</v>
       </c>
@@ -23607,7 +23607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:23">
       <c r="B296" s="1">
         <v>293</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="297" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:23">
       <c r="B297" s="1">
         <v>294</v>
       </c>
@@ -23743,7 +23743,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="298" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:23">
       <c r="B298" s="1">
         <v>295</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:23">
       <c r="B299" s="1">
         <v>296</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="300" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:23">
       <c r="B300" s="1">
         <v>297</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="301" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:23">
       <c r="B301" s="1">
         <v>298</v>
       </c>
@@ -24015,7 +24015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:23">
       <c r="B302" s="1">
         <v>299</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="303" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:23">
       <c r="B303" s="1">
         <v>300</v>
       </c>
@@ -24151,7 +24151,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="304" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:23">
       <c r="B304" s="1">
         <v>301</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="305" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:23">
       <c r="B305" s="1">
         <v>302</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="306" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:23">
       <c r="B306" s="1">
         <v>303</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="307" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:23">
       <c r="B307" s="1">
         <v>304</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="308" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:23">
       <c r="B308" s="1">
         <v>305</v>
       </c>
@@ -24491,7 +24491,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="309" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:23">
       <c r="B309" s="1">
         <v>306</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="310" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:23">
       <c r="B310" s="1">
         <v>307</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="311" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:23">
       <c r="B311" s="1">
         <v>308</v>
       </c>
@@ -24695,7 +24695,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="312" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:23">
       <c r="B312" s="1">
         <v>309</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="313" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:23">
       <c r="B313" s="1">
         <v>310</v>
       </c>
@@ -24831,7 +24831,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="314" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:23">
       <c r="B314" s="1">
         <v>311</v>
       </c>
@@ -24899,7 +24899,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="315" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:23">
       <c r="B315" s="1">
         <v>312</v>
       </c>
@@ -24967,7 +24967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="316" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:23">
       <c r="B316" s="1">
         <v>313</v>
       </c>
@@ -25035,7 +25035,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="317" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:23">
       <c r="B317" s="1">
         <v>314</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="318" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:23">
       <c r="B318" s="1">
         <v>315</v>
       </c>
@@ -25171,7 +25171,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="319" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:23">
       <c r="B319" s="1">
         <v>316</v>
       </c>
@@ -25239,7 +25239,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="320" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:23">
       <c r="B320" s="1">
         <v>317</v>
       </c>
@@ -25307,7 +25307,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="321" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:23">
       <c r="B321" s="1">
         <v>318</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="322" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:23">
       <c r="B322" s="1">
         <v>319</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="323" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:23">
       <c r="B323" s="1">
         <v>320</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="324" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:23">
       <c r="B324" s="1">
         <v>321</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="325" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:23">
       <c r="B325" s="1">
         <v>322</v>
       </c>
@@ -25647,7 +25647,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="326" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:23">
       <c r="B326" s="1">
         <v>323</v>
       </c>
@@ -25715,7 +25715,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="327" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:23">
       <c r="B327" s="1">
         <v>324</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="328" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:23">
       <c r="B328" s="1">
         <v>325</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="329" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:23">
       <c r="B329" s="1">
         <v>326</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="330" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:23">
       <c r="B330" s="1">
         <v>327</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="331" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:23">
       <c r="B331" s="1">
         <v>328</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="332" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:23">
       <c r="B332" s="1">
         <v>329</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="333" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:23">
       <c r="B333" s="1">
         <v>330</v>
       </c>
@@ -26191,7 +26191,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="334" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:23">
       <c r="B334" s="1">
         <v>331</v>
       </c>
@@ -26259,7 +26259,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="335" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:23">
       <c r="B335" s="1">
         <v>332</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="336" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:23">
       <c r="B336" s="1">
         <v>333</v>
       </c>
@@ -26395,7 +26395,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="337" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:23">
       <c r="B337" s="1">
         <v>334</v>
       </c>
@@ -26463,7 +26463,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="338" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:23">
       <c r="B338" s="1">
         <v>335</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="339" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:23">
       <c r="B339" s="1">
         <v>336</v>
       </c>
@@ -26599,7 +26599,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="340" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:23">
       <c r="B340" s="1">
         <v>337</v>
       </c>
@@ -26667,7 +26667,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="341" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:23">
       <c r="B341" s="1">
         <v>338</v>
       </c>
@@ -26735,7 +26735,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="342" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:23">
       <c r="B342" s="1">
         <v>339</v>
       </c>
@@ -26803,12 +26803,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="343" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:23">
       <c r="B343" s="1">
         <v>340</v>
       </c>
       <c r="C343">
-        <f>2012-1968</f>
         <v>44</v>
       </c>
       <c r="D343">
@@ -26872,7 +26871,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="344" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:23">
       <c r="B344" s="1">
         <v>341</v>
       </c>
@@ -26940,7 +26939,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="345" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:23">
       <c r="B345" s="1">
         <v>342</v>
       </c>
@@ -27008,7 +27007,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="346" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:23">
       <c r="B346" s="1">
         <v>343</v>
       </c>
@@ -27076,7 +27075,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="347" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:23">
       <c r="B347" s="1">
         <v>344</v>
       </c>
@@ -27144,7 +27143,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="348" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:23">
       <c r="B348" s="1">
         <v>345</v>
       </c>
@@ -27212,7 +27211,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="349" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:23">
       <c r="B349" s="1">
         <v>346</v>
       </c>
@@ -27280,7 +27279,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="350" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:23">
       <c r="B350" s="1">
         <v>347</v>
       </c>
@@ -27348,7 +27347,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:23">
       <c r="B351" s="1">
         <v>348</v>
       </c>
@@ -27416,7 +27415,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="352" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:23">
       <c r="B352" s="1">
         <v>349</v>
       </c>
@@ -27484,7 +27483,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="353" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:23">
       <c r="B353" s="1">
         <v>350</v>
       </c>
@@ -27552,7 +27551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="354" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:23">
       <c r="B354" s="1">
         <v>351</v>
       </c>
@@ -27621,7 +27620,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="355" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:23">
       <c r="B355" s="1">
         <v>352</v>
       </c>
@@ -27690,7 +27689,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="356" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:23">
       <c r="B356" s="1">
         <v>353</v>
       </c>
@@ -27758,7 +27757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="357" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:23">
       <c r="B357" s="1">
         <v>354</v>
       </c>
@@ -27826,7 +27825,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="358" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:23">
       <c r="B358" s="1">
         <v>355</v>
       </c>
@@ -27894,7 +27893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="359" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:23">
       <c r="B359" s="1">
         <v>356</v>
       </c>
@@ -27962,7 +27961,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="360" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:23">
       <c r="B360" s="1">
         <v>357</v>
       </c>
@@ -28030,7 +28029,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="361" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:23">
       <c r="B361" s="1">
         <v>358</v>
       </c>
@@ -28098,7 +28097,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="362" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:23">
       <c r="B362" s="1">
         <v>359</v>
       </c>
@@ -28166,7 +28165,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="363" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:23">
       <c r="B363" s="1">
         <v>360</v>
       </c>
@@ -28234,7 +28233,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="364" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:23">
       <c r="B364" s="1">
         <v>361</v>
       </c>
@@ -28302,7 +28301,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="365" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:23">
       <c r="B365" s="1">
         <v>362</v>
       </c>
@@ -28370,7 +28369,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="366" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:23">
       <c r="B366" s="1">
         <v>363</v>
       </c>
@@ -28438,7 +28437,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="367" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:23">
       <c r="B367" s="1">
         <v>364</v>
       </c>
@@ -28506,7 +28505,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="368" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:23">
       <c r="B368" s="1">
         <v>365</v>
       </c>
@@ -28574,7 +28573,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="369" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:23">
       <c r="B369" s="1">
         <v>366</v>
       </c>
@@ -28642,7 +28641,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="370" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:23">
       <c r="B370" s="1">
         <v>367</v>
       </c>
@@ -28710,7 +28709,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="371" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:23">
       <c r="B371" s="1">
         <v>368</v>
       </c>
@@ -28778,7 +28777,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:23">
       <c r="B372" s="1">
         <v>369</v>
       </c>
@@ -28846,7 +28845,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="373" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:23">
       <c r="B373" s="1">
         <v>370</v>
       </c>
@@ -28914,7 +28913,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="374" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:23">
       <c r="B374" s="1">
         <v>371</v>
       </c>
@@ -28982,7 +28981,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="375" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:23">
       <c r="B375" s="1">
         <v>372</v>
       </c>
@@ -29050,7 +29049,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="376" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:23">
       <c r="B376" s="1">
         <v>373</v>
       </c>
@@ -29118,7 +29117,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="377" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:23">
       <c r="B377" s="1">
         <v>374</v>
       </c>
@@ -29186,7 +29185,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="378" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:23">
       <c r="B378" s="1">
         <v>375</v>
       </c>
@@ -29254,7 +29253,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="379" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:23">
       <c r="B379" s="1">
         <v>376</v>
       </c>
@@ -29322,7 +29321,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="380" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:23">
       <c r="B380" s="1">
         <v>377</v>
       </c>
@@ -29390,7 +29389,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="381" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:23">
       <c r="B381" s="1">
         <v>378</v>
       </c>
@@ -29458,7 +29457,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="382" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:23">
       <c r="B382" s="1">
         <v>379</v>
       </c>
@@ -29526,7 +29525,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="383" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:23">
       <c r="B383" s="1">
         <v>380</v>
       </c>
@@ -29594,7 +29593,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="384" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:23">
       <c r="B384" s="1">
         <v>381</v>
       </c>
@@ -29662,7 +29661,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="385" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:23">
       <c r="B385" s="1">
         <v>382</v>
       </c>
@@ -29730,7 +29729,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="386" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:23">
       <c r="B386" s="1">
         <v>383</v>
       </c>
@@ -29798,7 +29797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="387" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:23">
       <c r="B387" s="1">
         <v>384</v>
       </c>
@@ -29866,7 +29865,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="388" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:23">
       <c r="B388" s="1">
         <v>385</v>
       </c>
@@ -29934,7 +29933,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="389" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:23">
       <c r="B389" s="1">
         <v>386</v>
       </c>
@@ -30002,7 +30001,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="390" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:23">
       <c r="B390" s="1">
         <v>387</v>
       </c>
@@ -30070,7 +30069,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="391" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:23">
       <c r="B391" s="1">
         <v>388</v>
       </c>
@@ -30138,7 +30137,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="392" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:23">
       <c r="B392" s="1">
         <v>389</v>
       </c>
@@ -30206,7 +30205,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="393" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:23">
       <c r="B393" s="1">
         <v>390</v>
       </c>
@@ -30274,7 +30273,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="394" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:23">
       <c r="B394" s="1">
         <v>391</v>
       </c>
@@ -30342,7 +30341,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="395" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:23">
       <c r="B395" s="1">
         <v>392</v>
       </c>
@@ -30410,7 +30409,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="396" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:23">
       <c r="B396" s="1">
         <v>393</v>
       </c>
@@ -30478,7 +30477,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="397" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:23">
       <c r="B397" s="1">
         <v>394</v>
       </c>
@@ -30546,7 +30545,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="398" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:23">
       <c r="B398" s="1">
         <v>395</v>
       </c>
@@ -30614,7 +30613,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="399" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:23">
       <c r="B399" s="1">
         <v>396</v>
       </c>
@@ -30682,7 +30681,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="400" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:23">
       <c r="B400" s="1">
         <v>397</v>
       </c>
@@ -30750,7 +30749,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="401" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:23">
       <c r="B401" s="1">
         <v>398</v>
       </c>
@@ -30818,7 +30817,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="402" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:23">
       <c r="B402" s="1">
         <v>399</v>
       </c>
@@ -30886,7 +30885,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="403" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:23">
       <c r="B403" s="1">
         <v>400</v>
       </c>
@@ -30954,7 +30953,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="404" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:23">
       <c r="B404" s="1">
         <v>401</v>
       </c>
@@ -31022,7 +31021,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="405" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:23">
       <c r="B405" s="1">
         <v>402</v>
       </c>
@@ -31090,7 +31089,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="406" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:23">
       <c r="B406" s="1">
         <v>403</v>
       </c>
@@ -31158,7 +31157,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="407" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:23">
       <c r="B407" s="1">
         <v>404</v>
       </c>
@@ -31226,7 +31225,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="408" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:23">
       <c r="B408" s="1">
         <v>405</v>
       </c>
@@ -31294,7 +31293,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="409" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:23">
       <c r="B409" s="1">
         <v>406</v>
       </c>
@@ -31362,7 +31361,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="410" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:23">
       <c r="B410" s="1">
         <v>407</v>
       </c>
@@ -31430,7 +31429,7 @@
         <v>4897</v>
       </c>
     </row>
-    <row r="411" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:23">
       <c r="B411" s="1">
         <v>408</v>
       </c>
@@ -31498,7 +31497,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="412" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:23">
       <c r="B412" s="1">
         <v>409</v>
       </c>
@@ -31566,7 +31565,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="413" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:23">
       <c r="B413" s="1">
         <v>410</v>
       </c>
@@ -31634,7 +31633,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="414" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:23">
       <c r="B414" s="1">
         <v>411</v>
       </c>
@@ -31702,7 +31701,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="415" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:23">
       <c r="B415" s="1">
         <v>412</v>
       </c>
@@ -31770,7 +31769,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="416" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:23">
       <c r="B416" s="1">
         <v>413</v>
       </c>
@@ -31838,7 +31837,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="417" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:23">
       <c r="B417" s="1">
         <v>414</v>
       </c>
@@ -31906,7 +31905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:23">
       <c r="B418" s="1">
         <v>415</v>
       </c>
@@ -31974,7 +31973,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="419" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:23">
       <c r="B419" s="1">
         <v>416</v>
       </c>
@@ -32042,7 +32041,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="420" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:23">
       <c r="B420" s="1">
         <v>417</v>
       </c>
@@ -32110,7 +32109,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="421" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:23">
       <c r="B421" s="1">
         <v>418</v>
       </c>
@@ -32178,7 +32177,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="422" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:23">
       <c r="B422" s="1">
         <v>419</v>
       </c>
@@ -32246,7 +32245,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="423" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:23">
       <c r="B423" s="1">
         <v>420</v>
       </c>
@@ -32314,7 +32313,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="424" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:23">
       <c r="B424" s="1">
         <v>421</v>
       </c>
@@ -32382,7 +32381,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="425" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:23">
       <c r="B425" s="1">
         <v>422</v>
       </c>
@@ -32450,7 +32449,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="426" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:23">
       <c r="B426" s="1">
         <v>423</v>
       </c>
@@ -32518,7 +32517,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="427" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:23">
       <c r="B427" s="1">
         <v>424</v>
       </c>
@@ -32586,7 +32585,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="428" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:23">
       <c r="B428" s="1">
         <v>425</v>
       </c>
@@ -32654,7 +32653,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="429" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:23">
       <c r="B429" s="1">
         <v>426</v>
       </c>
@@ -32722,7 +32721,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="430" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:23">
       <c r="B430" s="1">
         <v>427</v>
       </c>
@@ -32790,7 +32789,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="431" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:23">
       <c r="B431" s="1">
         <v>428</v>
       </c>
@@ -32858,7 +32857,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="432" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:23">
       <c r="B432" s="1">
         <v>429</v>
       </c>
@@ -32926,7 +32925,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="433" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:23">
       <c r="B433" s="1">
         <v>430</v>
       </c>
@@ -32994,7 +32993,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="434" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:23">
       <c r="B434" s="1">
         <v>431</v>
       </c>
@@ -33062,7 +33061,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="435" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:23">
       <c r="B435" s="1">
         <v>432</v>
       </c>
@@ -33130,7 +33129,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="436" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:23">
       <c r="B436" s="1">
         <v>433</v>
       </c>
@@ -33198,7 +33197,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="437" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:23">
       <c r="B437" s="1">
         <v>434</v>
       </c>
@@ -33266,7 +33265,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="438" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:23">
       <c r="B438" s="1">
         <v>435</v>
       </c>
@@ -33334,7 +33333,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="439" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:23">
       <c r="B439" s="1">
         <v>436</v>
       </c>
@@ -33402,7 +33401,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="440" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:23">
       <c r="B440" s="1">
         <v>437</v>
       </c>
@@ -33470,7 +33469,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="441" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:23">
       <c r="B441" s="1">
         <v>438</v>
       </c>
@@ -33538,7 +33537,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="442" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:23">
       <c r="B442" s="1">
         <v>439</v>
       </c>
@@ -33606,7 +33605,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="443" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:23">
       <c r="B443" s="1">
         <v>440</v>
       </c>
@@ -33674,7 +33673,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="444" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:23">
       <c r="B444" s="1">
         <v>441</v>
       </c>
@@ -33742,7 +33741,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="445" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:23">
       <c r="B445" s="1">
         <v>442</v>
       </c>
@@ -33810,7 +33809,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="446" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:23">
       <c r="B446" s="1">
         <v>443</v>
       </c>
@@ -33878,7 +33877,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="447" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:23">
       <c r="B447" s="1">
         <v>444</v>
       </c>
@@ -33946,7 +33945,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="448" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:23">
       <c r="B448" s="1">
         <v>445</v>
       </c>
@@ -34014,7 +34013,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="449" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:23">
       <c r="B449" s="1">
         <v>446</v>
       </c>
@@ -34082,7 +34081,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="450" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:23">
       <c r="B450" s="1">
         <v>447</v>
       </c>
@@ -34150,7 +34149,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="451" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:23">
       <c r="B451" s="1">
         <v>448</v>
       </c>
@@ -34218,7 +34217,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="452" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:23">
       <c r="B452" s="1">
         <v>449</v>
       </c>
@@ -34286,7 +34285,7 @@
         <v>4974</v>
       </c>
     </row>
-    <row r="453" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:23">
       <c r="B453" s="1">
         <v>450</v>
       </c>
@@ -34354,7 +34353,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="454" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:23">
       <c r="B454" s="1">
         <v>451</v>
       </c>
@@ -34422,7 +34421,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="455" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:23">
       <c r="B455" s="1">
         <v>452</v>
       </c>
@@ -34490,7 +34489,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="456" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:23">
       <c r="B456" s="1">
         <v>453</v>
       </c>
@@ -34558,7 +34557,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="457" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:23">
       <c r="B457" s="1">
         <v>454</v>
       </c>
@@ -34626,7 +34625,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="458" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:23">
       <c r="B458" s="1">
         <v>455</v>
       </c>
@@ -34694,7 +34693,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="459" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:23">
       <c r="B459" s="1">
         <v>456</v>
       </c>
@@ -34762,7 +34761,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="460" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:23">
       <c r="B460" s="1">
         <v>457</v>
       </c>
@@ -34830,7 +34829,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="461" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:23">
       <c r="B461" s="1">
         <v>458</v>
       </c>
@@ -34898,7 +34897,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="462" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:23">
       <c r="B462" s="1">
         <v>459</v>
       </c>
@@ -34966,7 +34965,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="463" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:23">
       <c r="B463" s="1">
         <v>460</v>
       </c>
@@ -35034,7 +35033,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="464" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:23">
       <c r="B464" s="1">
         <v>461</v>
       </c>
@@ -35102,7 +35101,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="465" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:23">
       <c r="B465" s="1">
         <v>462</v>
       </c>
@@ -35170,7 +35169,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="466" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:23">
       <c r="B466" s="1">
         <v>463</v>
       </c>
@@ -35238,7 +35237,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="467" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:23">
       <c r="B467" s="1">
         <v>464</v>
       </c>
@@ -35306,7 +35305,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="468" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:23">
       <c r="B468" s="1">
         <v>465</v>
       </c>
@@ -35374,7 +35373,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="469" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:23">
       <c r="B469" s="1">
         <v>466</v>
       </c>
@@ -35442,7 +35441,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="470" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:23">
       <c r="B470" s="1">
         <v>467</v>
       </c>
@@ -35510,7 +35509,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="471" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:23">
       <c r="B471" s="1">
         <v>468</v>
       </c>
@@ -35578,7 +35577,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="472" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:23">
       <c r="B472" s="1">
         <v>469</v>
       </c>
@@ -35646,7 +35645,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="473" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:23">
       <c r="B473" s="1">
         <v>470</v>
       </c>
@@ -35714,7 +35713,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="474" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:23">
       <c r="B474" s="1">
         <v>471</v>
       </c>
@@ -35782,7 +35781,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="475" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:23">
       <c r="B475" s="1">
         <v>472</v>
       </c>
@@ -35850,7 +35849,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="476" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:23">
       <c r="B476" s="1">
         <v>473</v>
       </c>
@@ -35918,7 +35917,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="477" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:23">
       <c r="B477" s="1">
         <v>474</v>
       </c>
@@ -35986,7 +35985,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="478" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:23">
       <c r="B478" s="1">
         <v>475</v>
       </c>
@@ -36054,7 +36053,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="479" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:23">
       <c r="B479" s="1">
         <v>476</v>
       </c>
@@ -36122,7 +36121,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="480" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:23">
       <c r="B480" s="1">
         <v>477</v>
       </c>
@@ -36190,7 +36189,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="481" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:23">
       <c r="B481" s="1">
         <v>478</v>
       </c>
@@ -36258,7 +36257,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:23">
       <c r="B482" s="1">
         <v>479</v>
       </c>
@@ -36326,7 +36325,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="483" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:23">
       <c r="B483" s="1">
         <v>480</v>
       </c>
@@ -36394,7 +36393,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="484" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:23">
       <c r="B484" s="1">
         <v>481</v>
       </c>
@@ -36462,7 +36461,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:23">
       <c r="B485" s="1">
         <v>482</v>
       </c>
@@ -36530,7 +36529,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="486" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:23">
       <c r="B486" s="1">
         <v>483</v>
       </c>
@@ -36598,7 +36597,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="487" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:23">
       <c r="B487" s="1">
         <v>484</v>
       </c>
@@ -36666,7 +36665,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="488" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:23">
       <c r="B488" s="1">
         <v>485</v>
       </c>
@@ -36734,7 +36733,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="489" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:23">
       <c r="B489" s="1">
         <v>486</v>
       </c>
@@ -36802,7 +36801,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="490" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:23">
       <c r="B490" s="1">
         <v>487</v>
       </c>
@@ -36870,7 +36869,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="491" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:23">
       <c r="B491" s="1">
         <v>488</v>
       </c>
@@ -36938,7 +36937,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="492" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:23">
       <c r="B492" s="1">
         <v>489</v>
       </c>
@@ -37006,7 +37005,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="493" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:23">
       <c r="B493" s="1">
         <v>490</v>
       </c>
@@ -37074,7 +37073,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="494" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:23">
       <c r="B494" s="1">
         <v>491</v>
       </c>
@@ -37142,7 +37141,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="495" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:23">
       <c r="B495" s="1">
         <v>492</v>
       </c>
@@ -37210,7 +37209,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="496" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:23">
       <c r="B496" s="1">
         <v>493</v>
       </c>
@@ -37278,7 +37277,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="497" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:23">
       <c r="B497" s="1">
         <v>494</v>
       </c>
@@ -37346,7 +37345,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="498" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:23">
       <c r="B498" s="1">
         <v>495</v>
       </c>
@@ -37414,7 +37413,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="499" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:23">
       <c r="B499" s="1">
         <v>496</v>
       </c>
@@ -37482,7 +37481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="500" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:23">
       <c r="B500" s="1">
         <v>497</v>
       </c>
@@ -37550,7 +37549,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="501" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:23">
       <c r="B501" s="1">
         <v>498</v>
       </c>
@@ -37618,7 +37617,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="502" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:23">
       <c r="B502" s="1">
         <v>499</v>
       </c>
@@ -37686,7 +37685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="503" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:23">
       <c r="B503" s="1">
         <v>500</v>
       </c>
@@ -37754,7 +37753,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="504" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:23">
       <c r="B504" s="1">
         <v>501</v>
       </c>
@@ -37822,7 +37821,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="505" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:23">
       <c r="B505" s="1">
         <v>502</v>
       </c>
@@ -37890,7 +37889,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="506" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:23">
       <c r="B506" s="1">
         <v>503</v>
       </c>
@@ -37958,7 +37957,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="507" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:23">
       <c r="B507" s="1">
         <v>504</v>
       </c>
@@ -38026,7 +38025,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="508" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:23">
       <c r="B508" s="1">
         <v>505</v>
       </c>
@@ -38094,7 +38093,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="509" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:23">
       <c r="B509" s="1">
         <v>506</v>
       </c>
@@ -38162,7 +38161,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="510" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:23">
       <c r="B510" s="1">
         <v>507</v>
       </c>
@@ -38230,7 +38229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:23">
       <c r="B511" s="1">
         <v>508</v>
       </c>
@@ -38298,7 +38297,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="512" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:23">
       <c r="B512" s="1">
         <v>509</v>
       </c>
@@ -38366,7 +38365,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="513" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:23">
       <c r="B513" s="1">
         <v>510</v>
       </c>
@@ -38434,7 +38433,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="514" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:23">
       <c r="B514" s="1">
         <v>511</v>
       </c>
@@ -38502,7 +38501,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="515" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:23">
       <c r="B515" s="1">
         <v>512</v>
       </c>
@@ -38570,7 +38569,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="516" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:23">
       <c r="B516" s="1">
         <v>513</v>
       </c>
@@ -38638,7 +38637,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="517" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:23">
       <c r="B517" s="1">
         <v>514</v>
       </c>
@@ -38706,7 +38705,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="518" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:23">
       <c r="B518" s="1">
         <v>515</v>
       </c>
@@ -38774,7 +38773,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="519" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:23">
       <c r="B519" s="1">
         <v>516</v>
       </c>
@@ -38842,7 +38841,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="520" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:23">
       <c r="B520" s="1">
         <v>517</v>
       </c>
@@ -38910,7 +38909,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="521" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:23">
       <c r="B521" s="1">
         <v>518</v>
       </c>
@@ -38978,7 +38977,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="522" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:23">
       <c r="B522" s="1">
         <v>519</v>
       </c>
@@ -39046,7 +39045,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="523" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:23">
       <c r="B523" s="1">
         <v>520</v>
       </c>
@@ -39114,7 +39113,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="524" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:23">
       <c r="B524" s="1">
         <v>521</v>
       </c>
@@ -39182,7 +39181,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="525" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:23">
       <c r="B525" s="1">
         <v>522</v>
       </c>
@@ -39250,7 +39249,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="526" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:23">
       <c r="B526" s="1">
         <v>523</v>
       </c>
@@ -39318,7 +39317,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="527" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:23">
       <c r="B527" s="1">
         <v>524</v>
       </c>
@@ -39386,7 +39385,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="528" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:23">
       <c r="B528" s="1">
         <v>525</v>
       </c>
@@ -39454,7 +39453,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="529" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:23">
       <c r="B529" s="1">
         <v>526</v>
       </c>
@@ -39522,7 +39521,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="530" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:23">
       <c r="B530" s="1">
         <v>527</v>
       </c>
@@ -39590,7 +39589,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="531" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:23">
       <c r="B531" s="1">
         <v>528</v>
       </c>
@@ -39658,7 +39657,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="532" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:23">
       <c r="B532" s="1">
         <v>529</v>
       </c>
@@ -39726,7 +39725,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="533" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:23">
       <c r="B533" s="1">
         <v>530</v>
       </c>
@@ -39794,7 +39793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="534" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:23">
       <c r="B534" s="1">
         <v>531</v>
       </c>
@@ -39862,7 +39861,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="535" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:23">
       <c r="B535" s="1">
         <v>532</v>
       </c>
@@ -39930,7 +39929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="536" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:23">
       <c r="B536" s="1">
         <v>533</v>
       </c>
@@ -39998,7 +39997,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="537" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:23">
       <c r="B537" s="1">
         <v>534</v>
       </c>
@@ -40066,7 +40065,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="538" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:23">
       <c r="B538" s="1">
         <v>535</v>
       </c>
@@ -40134,7 +40133,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="539" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:23">
       <c r="B539" s="1">
         <v>536</v>
       </c>
@@ -40202,7 +40201,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="540" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:23">
       <c r="B540" s="1">
         <v>537</v>
       </c>
@@ -40270,7 +40269,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="541" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:23">
       <c r="B541" s="1">
         <v>538</v>
       </c>
@@ -40338,7 +40337,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="542" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:23">
       <c r="B542" s="1">
         <v>539</v>
       </c>
@@ -40406,7 +40405,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="543" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:23">
       <c r="B543" s="1">
         <v>540</v>
       </c>
@@ -40474,7 +40473,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="544" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:23">
       <c r="B544" s="1">
         <v>541</v>
       </c>
@@ -40542,7 +40541,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="545" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:23">
       <c r="B545" s="1">
         <v>542</v>
       </c>
@@ -40610,7 +40609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="546" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:23">
       <c r="B546" s="1">
         <v>543</v>
       </c>
@@ -40678,7 +40677,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="547" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:23">
       <c r="B547" s="1">
         <v>544</v>
       </c>
@@ -40746,7 +40745,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="548" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:23">
       <c r="B548" s="1">
         <v>545</v>
       </c>
@@ -40814,7 +40813,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="549" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:23">
       <c r="B549" s="1">
         <v>546</v>
       </c>
@@ -40882,7 +40881,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="550" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:23">
       <c r="B550" s="1">
         <v>547</v>
       </c>
@@ -40950,7 +40949,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="551" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:23">
       <c r="B551" s="1">
         <v>548</v>
       </c>
@@ -41018,7 +41017,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="552" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:23">
       <c r="B552" s="1">
         <v>549</v>
       </c>
@@ -41086,7 +41085,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="553" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:23">
       <c r="B553" s="1">
         <v>550</v>
       </c>
@@ -41154,7 +41153,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="554" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:23">
       <c r="B554" s="1">
         <v>551</v>
       </c>
@@ -41222,7 +41221,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="555" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:23">
       <c r="B555" s="1">
         <v>552</v>
       </c>
@@ -41290,7 +41289,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="556" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:23">
       <c r="B556" s="1">
         <v>553</v>
       </c>
@@ -41358,7 +41357,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="557" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:23">
       <c r="B557" s="1">
         <v>554</v>
       </c>
@@ -41426,7 +41425,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="558" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:23">
       <c r="B558" s="1">
         <v>555</v>
       </c>
@@ -41494,7 +41493,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="559" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:23">
       <c r="B559" s="1">
         <v>556</v>
       </c>
@@ -41562,7 +41561,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="560" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:23">
       <c r="B560" s="1">
         <v>557</v>
       </c>
@@ -41630,7 +41629,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="561" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:23">
       <c r="B561" s="1">
         <v>558</v>
       </c>
@@ -41698,7 +41697,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="562" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:23">
       <c r="B562" s="1">
         <v>559</v>
       </c>
@@ -41766,7 +41765,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="563" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:23">
       <c r="B563" s="1">
         <v>560</v>
       </c>
@@ -41834,7 +41833,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="564" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:23">
       <c r="B564" s="1">
         <v>561</v>
       </c>
@@ -41902,7 +41901,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="565" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:23">
       <c r="B565" s="1">
         <v>562</v>
       </c>
@@ -41970,7 +41969,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="566" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:23">
       <c r="B566" s="1">
         <v>563</v>
       </c>
@@ -42038,7 +42037,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="567" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:23">
       <c r="B567" s="1">
         <v>564</v>
       </c>
@@ -42106,7 +42105,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="568" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:23">
       <c r="B568" s="1">
         <v>565</v>
       </c>
@@ -42174,7 +42173,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="569" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:23">
       <c r="B569" s="1">
         <v>566</v>
       </c>
@@ -42242,7 +42241,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="570" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:23">
       <c r="B570" s="1">
         <v>567</v>
       </c>
@@ -42310,7 +42309,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="571" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:23">
       <c r="B571" s="1">
         <v>568</v>
       </c>
@@ -42378,7 +42377,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="572" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:23">
       <c r="B572" s="1">
         <v>569</v>
       </c>
@@ -42446,7 +42445,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="573" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:23">
       <c r="B573" s="1">
         <v>570</v>
       </c>
@@ -42514,7 +42513,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="574" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:23">
       <c r="B574" s="1">
         <v>571</v>
       </c>
@@ -42582,7 +42581,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="575" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:23">
       <c r="B575" s="1">
         <v>572</v>
       </c>
@@ -42650,7 +42649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="576" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:23">
       <c r="B576" s="1">
         <v>573</v>
       </c>
@@ -42718,7 +42717,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="577" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:23">
       <c r="B577" s="1">
         <v>574</v>
       </c>
@@ -42786,7 +42785,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="578" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:23">
       <c r="B578" s="1">
         <v>575</v>
       </c>
@@ -42854,7 +42853,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="579" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:23">
       <c r="B579" s="1">
         <v>576</v>
       </c>
@@ -42922,7 +42921,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="580" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:23">
       <c r="B580" s="1">
         <v>577</v>
       </c>
@@ -42990,7 +42989,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="581" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:23">
       <c r="B581" s="1">
         <v>578</v>
       </c>
@@ -43058,7 +43057,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="582" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:23">
       <c r="B582" s="1">
         <v>579</v>
       </c>
@@ -43126,7 +43125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="583" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:23">
       <c r="B583" s="1">
         <v>580</v>
       </c>
@@ -43194,7 +43193,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="584" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:23">
       <c r="B584" s="1">
         <v>581</v>
       </c>
@@ -43262,7 +43261,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="585" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:23">
       <c r="B585" s="1">
         <v>582</v>
       </c>
@@ -43330,7 +43329,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="586" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:23">
       <c r="B586" s="1">
         <v>583</v>
       </c>
@@ -43398,7 +43397,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="587" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:23">
       <c r="B587" s="1">
         <v>584</v>
       </c>
@@ -43466,7 +43465,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="588" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:23">
       <c r="B588" s="1">
         <v>585</v>
       </c>
@@ -43534,7 +43533,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="589" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:23">
       <c r="B589" s="1">
         <v>586</v>
       </c>
@@ -43602,7 +43601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:23">
       <c r="B590" s="1">
         <v>587</v>
       </c>
@@ -43670,7 +43669,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="591" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:23">
       <c r="B591" s="1">
         <v>588</v>
       </c>
@@ -43738,7 +43737,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="592" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:23">
       <c r="B592" s="1">
         <v>589</v>
       </c>
@@ -43806,7 +43805,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="593" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:23">
       <c r="B593" s="1">
         <v>590</v>
       </c>
@@ -43874,7 +43873,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="594" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:23">
       <c r="B594" s="1">
         <v>591</v>
       </c>
@@ -43942,7 +43941,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="595" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:23">
       <c r="B595" s="1">
         <v>592</v>
       </c>
@@ -44010,7 +44009,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="596" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:23">
       <c r="B596" s="1">
         <v>593</v>
       </c>
@@ -44078,7 +44077,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="597" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:23">
       <c r="B597" s="1">
         <v>594</v>
       </c>
@@ -44146,7 +44145,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="598" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:23">
       <c r="B598" s="1">
         <v>595</v>
       </c>
@@ -44214,7 +44213,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="599" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:23">
       <c r="B599" s="1">
         <v>596</v>
       </c>
@@ -44282,7 +44281,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="600" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:23">
       <c r="B600" s="1">
         <v>597</v>
       </c>
@@ -44350,7 +44349,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="601" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:23">
       <c r="B601" s="1">
         <v>598</v>
       </c>
@@ -44418,7 +44417,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="602" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:23">
       <c r="B602" s="1">
         <v>599</v>
       </c>
@@ -44486,7 +44485,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="603" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:23">
       <c r="B603" s="1">
         <v>600</v>
       </c>
@@ -44554,7 +44553,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="604" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:23">
       <c r="B604" s="1">
         <v>601</v>
       </c>
@@ -44622,7 +44621,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="605" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:23">
       <c r="B605" s="1">
         <v>602</v>
       </c>
@@ -44690,7 +44689,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="606" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:23">
       <c r="B606" s="1">
         <v>603</v>
       </c>
@@ -44758,7 +44757,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="607" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:23">
       <c r="B607" s="1">
         <v>604</v>
       </c>
@@ -44826,7 +44825,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="608" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:23">
       <c r="B608" s="1">
         <v>605</v>
       </c>
@@ -44894,7 +44893,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="609" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:23">
       <c r="B609" s="1">
         <v>606</v>
       </c>
@@ -44962,7 +44961,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="610" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:23">
       <c r="B610" s="1">
         <v>607</v>
       </c>
@@ -45030,7 +45029,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="611" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:23">
       <c r="B611" s="1">
         <v>608</v>
       </c>
@@ -45098,7 +45097,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="612" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:23">
       <c r="B612" s="1">
         <v>609</v>
       </c>
@@ -45166,7 +45165,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="613" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:23">
       <c r="B613" s="1">
         <v>610</v>
       </c>
@@ -45234,7 +45233,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="614" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:23">
       <c r="B614" s="1">
         <v>611</v>
       </c>
@@ -45302,7 +45301,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="615" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:23">
       <c r="B615" s="1">
         <v>612</v>
       </c>
@@ -45370,7 +45369,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="616" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:23">
       <c r="B616" s="1">
         <v>613</v>
       </c>
@@ -45438,7 +45437,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="617" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:23">
       <c r="B617" s="1">
         <v>614</v>
       </c>
@@ -45506,7 +45505,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="618" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:23">
       <c r="B618" s="1">
         <v>615</v>
       </c>
@@ -45574,7 +45573,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="619" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:23">
       <c r="B619" s="1">
         <v>616</v>
       </c>
@@ -45642,7 +45641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="620" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:23">
       <c r="B620" s="1">
         <v>617</v>
       </c>
@@ -45710,7 +45709,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="621" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:23">
       <c r="B621" s="1">
         <v>618</v>
       </c>
@@ -45778,7 +45777,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="622" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:23">
       <c r="B622" s="1">
         <v>619</v>
       </c>
@@ -45846,7 +45845,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="623" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:23">
       <c r="B623" s="1">
         <v>620</v>
       </c>
@@ -45914,7 +45913,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="624" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:23">
       <c r="B624" s="1">
         <v>621</v>
       </c>
@@ -45982,7 +45981,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="625" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:23">
       <c r="B625" s="1">
         <v>622</v>
       </c>
@@ -46050,7 +46049,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="626" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:23">
       <c r="B626" s="1">
         <v>623</v>
       </c>
@@ -46118,7 +46117,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="627" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:23">
       <c r="B627" s="1">
         <v>624</v>
       </c>
@@ -46186,7 +46185,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="628" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:23">
       <c r="B628" s="1">
         <v>625</v>
       </c>
@@ -46254,7 +46253,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="629" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:23">
       <c r="B629" s="1">
         <v>626</v>
       </c>
@@ -46322,7 +46321,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="630" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:23">
       <c r="B630" s="1">
         <v>627</v>
       </c>
@@ -46390,7 +46389,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="631" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:23">
       <c r="B631" s="1">
         <v>628</v>
       </c>
@@ -46458,7 +46457,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="632" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:23">
       <c r="B632" s="1">
         <v>629</v>
       </c>
@@ -46526,7 +46525,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="633" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:23">
       <c r="B633" s="1">
         <v>630</v>
       </c>
@@ -46594,7 +46593,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="634" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:23">
       <c r="B634" s="1">
         <v>631</v>
       </c>
@@ -46662,7 +46661,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="635" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:23">
       <c r="B635" s="1">
         <v>632</v>
       </c>
@@ -46730,7 +46729,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="636" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:23">
       <c r="B636" s="1">
         <v>633</v>
       </c>
@@ -46798,7 +46797,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="637" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:23">
       <c r="B637" s="1">
         <v>634</v>
       </c>
@@ -46866,7 +46865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="638" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:23">
       <c r="B638" s="1">
         <v>635</v>
       </c>
@@ -46934,7 +46933,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="639" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:23">
       <c r="B639" s="1">
         <v>636</v>
       </c>
@@ -47002,7 +47001,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="640" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:23">
       <c r="B640" s="1">
         <v>637</v>
       </c>
@@ -47070,7 +47069,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="641" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:23">
       <c r="B641" s="1">
         <v>638</v>
       </c>
@@ -47138,7 +47137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="642" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:23">
       <c r="B642" s="1">
         <v>639</v>
       </c>
@@ -47206,7 +47205,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="643" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:23">
       <c r="B643" s="1">
         <v>640</v>
       </c>
@@ -47274,7 +47273,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="644" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:23">
       <c r="B644" s="1">
         <v>641</v>
       </c>
@@ -47342,7 +47341,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="645" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:23">
       <c r="B645" s="1">
         <v>642</v>
       </c>
@@ -47410,7 +47409,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="646" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:23">
       <c r="B646" s="1">
         <v>643</v>
       </c>
@@ -47478,7 +47477,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="647" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:23">
       <c r="B647" s="1">
         <v>644</v>
       </c>
@@ -47546,7 +47545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="648" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:23">
       <c r="B648" s="1">
         <v>645</v>
       </c>
@@ -47614,7 +47613,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="649" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:23">
       <c r="B649" s="1">
         <v>646</v>
       </c>
@@ -47682,7 +47681,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="650" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:23">
       <c r="B650" s="1">
         <v>647</v>
       </c>
@@ -47750,7 +47749,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="651" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:23">
       <c r="B651" s="1">
         <v>648</v>
       </c>
@@ -47818,7 +47817,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="652" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:23">
       <c r="B652" s="1">
         <v>649</v>
       </c>
@@ -47886,7 +47885,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="653" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:23">
       <c r="B653" s="1">
         <v>650</v>
       </c>
@@ -47954,7 +47953,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="654" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:23">
       <c r="B654" s="1">
         <v>651</v>
       </c>
@@ -48022,7 +48021,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="655" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:23">
       <c r="B655" s="1">
         <v>652</v>
       </c>
@@ -48090,7 +48089,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="656" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:23">
       <c r="B656" s="1">
         <v>653</v>
       </c>
@@ -48158,7 +48157,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="657" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:23">
       <c r="B657" s="1">
         <v>654</v>
       </c>
@@ -48226,7 +48225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="658" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:23">
       <c r="B658" s="1">
         <v>655</v>
       </c>
@@ -48294,7 +48293,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="659" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:23">
       <c r="B659" s="1">
         <v>656</v>
       </c>
@@ -48362,7 +48361,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="660" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:23">
       <c r="B660" s="1">
         <v>657</v>
       </c>
@@ -48430,7 +48429,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="661" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:23">
       <c r="B661" s="1">
         <v>658</v>
       </c>
@@ -48498,7 +48497,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="662" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:23">
       <c r="B662" s="1">
         <v>659</v>
       </c>
@@ -48566,7 +48565,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="663" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:23">
       <c r="B663" s="1">
         <v>660</v>
       </c>
@@ -48634,7 +48633,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="664" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:23">
       <c r="B664" s="1">
         <v>661</v>
       </c>
@@ -48702,7 +48701,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="665" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:23">
       <c r="B665" s="1">
         <v>662</v>
       </c>
@@ -48770,7 +48769,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="666" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:23">
       <c r="B666" s="1">
         <v>663</v>
       </c>
@@ -48838,7 +48837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:23">
       <c r="B667" s="1">
         <v>664</v>
       </c>
@@ -48906,7 +48905,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="668" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:23">
       <c r="B668" s="1">
         <v>665</v>
       </c>
@@ -48974,7 +48973,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="669" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:23">
       <c r="B669" s="1">
         <v>666</v>
       </c>
@@ -49042,7 +49041,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="670" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:23">
       <c r="B670" s="1">
         <v>667</v>
       </c>
@@ -49110,7 +49109,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="671" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:23">
       <c r="B671" s="1">
         <v>668</v>
       </c>
@@ -49178,7 +49177,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="672" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:23">
       <c r="B672" s="1">
         <v>669</v>
       </c>
@@ -49246,7 +49245,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="673" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:23">
       <c r="B673" s="1">
         <v>670</v>
       </c>
@@ -49314,7 +49313,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="674" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:23">
       <c r="B674" s="1">
         <v>671</v>
       </c>
@@ -49382,7 +49381,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="675" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:23">
       <c r="B675" s="1">
         <v>672</v>
       </c>
@@ -49450,7 +49449,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="676" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:23">
       <c r="B676" s="1">
         <v>673</v>
       </c>
@@ -49518,7 +49517,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="677" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:23">
       <c r="B677" s="1">
         <v>674</v>
       </c>
@@ -49586,7 +49585,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="678" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:23">
       <c r="B678" s="1">
         <v>675</v>
       </c>
@@ -49654,7 +49653,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="679" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:23">
       <c r="B679" s="1">
         <v>676</v>
       </c>
@@ -49722,7 +49721,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="680" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:23">
       <c r="B680" s="1">
         <v>677</v>
       </c>
@@ -49790,7 +49789,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="681" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:23">
       <c r="B681" s="1">
         <v>678</v>
       </c>
@@ -49858,7 +49857,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="682" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:23">
       <c r="B682" s="1">
         <v>679</v>
       </c>
@@ -49926,7 +49925,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="683" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:23">
       <c r="B683" s="1">
         <v>680</v>
       </c>
@@ -49994,7 +49993,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="684" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:23">
       <c r="B684" s="1">
         <v>681</v>
       </c>
@@ -50062,7 +50061,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="685" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:23">
       <c r="B685" s="1">
         <v>682</v>
       </c>
@@ -50130,7 +50129,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="686" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:23">
       <c r="B686" s="1">
         <v>683</v>
       </c>
@@ -50198,7 +50197,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="687" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:23">
       <c r="B687" s="1">
         <v>684</v>
       </c>
@@ -50266,7 +50265,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="688" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:23">
       <c r="B688" s="1">
         <v>685</v>
       </c>
@@ -50334,7 +50333,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="689" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:23">
       <c r="B689" s="1">
         <v>686</v>
       </c>
@@ -50402,7 +50401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="690" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:23">
       <c r="B690" s="1">
         <v>687</v>
       </c>
@@ -50471,7 +50470,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="691" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:23">
       <c r="B691" s="1">
         <v>688</v>
       </c>
@@ -50540,7 +50539,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="692" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:23">
       <c r="B692" s="1">
         <v>689</v>
       </c>
@@ -50609,7 +50608,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="693" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:23">
       <c r="B693" s="1">
         <v>690</v>
       </c>
@@ -50678,7 +50677,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="694" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:23">
       <c r="B694" s="1">
         <v>691</v>
       </c>
@@ -50747,7 +50746,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="695" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:23">
       <c r="B695" s="1">
         <v>692</v>
       </c>
@@ -50816,7 +50815,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="696" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:23">
       <c r="B696" s="1">
         <v>693</v>
       </c>
@@ -50886,7 +50885,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="697" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:23">
       <c r="B697" s="1">
         <v>694</v>
       </c>
@@ -50955,7 +50954,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="698" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:23">
       <c r="B698" s="1">
         <v>695</v>
       </c>
@@ -51024,7 +51023,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="699" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:23">
       <c r="B699" s="1">
         <v>696</v>
       </c>
@@ -51093,7 +51092,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="700" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:23">
       <c r="B700" s="1">
         <v>697</v>
       </c>
@@ -51162,7 +51161,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="701" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:23">
       <c r="B701" s="1">
         <v>698</v>
       </c>
@@ -51231,7 +51230,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="702" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:23">
       <c r="B702" s="1">
         <v>699</v>
       </c>
@@ -51300,7 +51299,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="703" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:23">
       <c r="B703" s="1">
         <v>700</v>
       </c>
@@ -51369,7 +51368,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="704" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:23">
       <c r="B704" s="1">
         <v>701</v>
       </c>
@@ -51438,7 +51437,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="705" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:24">
       <c r="B705" s="1">
         <v>702</v>
       </c>
@@ -51508,7 +51507,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="706" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:24">
       <c r="B706" s="1">
         <v>703</v>
       </c>
@@ -51576,7 +51575,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="707" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:24">
       <c r="B707" s="1">
         <v>704</v>
       </c>
@@ -51644,7 +51643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="708" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:24">
       <c r="B708" s="1">
         <v>705</v>
       </c>
@@ -51712,7 +51711,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="709" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:24">
       <c r="B709" s="1">
         <v>706</v>
       </c>
@@ -51780,7 +51779,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="710" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:24">
       <c r="B710" s="1">
         <v>707</v>
       </c>
@@ -51848,7 +51847,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="711" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:24">
       <c r="B711" s="1">
         <v>708</v>
       </c>
@@ -51916,7 +51915,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="712" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:24">
       <c r="B712" s="1">
         <v>709</v>
       </c>
@@ -51984,7 +51983,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="713" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:24">
       <c r="B713" s="1">
         <v>710</v>
       </c>
@@ -52052,7 +52051,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="714" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:24">
       <c r="A714" s="26"/>
       <c r="B714" s="1">
         <v>711</v>
@@ -52122,7 +52121,7 @@
       </c>
       <c r="X714" s="26"/>
     </row>
-    <row r="715" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:24">
       <c r="B715" s="1">
         <v>712</v>
       </c>
@@ -52191,7 +52190,7 @@
       </c>
       <c r="X715" s="26"/>
     </row>
-    <row r="716" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:24">
       <c r="B716" s="1">
         <v>713</v>
       </c>
@@ -52260,7 +52259,7 @@
       </c>
       <c r="X716" s="26"/>
     </row>
-    <row r="717" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:24">
       <c r="B717" s="1">
         <v>714</v>
       </c>
@@ -52329,7 +52328,7 @@
       </c>
       <c r="X717" s="26"/>
     </row>
-    <row r="718" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:24">
       <c r="B718" s="1">
         <v>715</v>
       </c>
@@ -52398,7 +52397,7 @@
       </c>
       <c r="X718" s="26"/>
     </row>
-    <row r="719" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:24">
       <c r="C719" s="26"/>
       <c r="D719" s="26"/>
       <c r="E719" s="26"/>
@@ -52422,7 +52421,7 @@
       <c r="W719" s="26"/>
       <c r="X719" s="26"/>
     </row>
-    <row r="720" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:24">
       <c r="C720" s="26"/>
       <c r="D720" s="26"/>
       <c r="E720" s="26"/>
@@ -52446,52 +52445,57 @@
       <c r="W720" s="26"/>
       <c r="X720" s="26"/>
     </row>
-    <row r="721" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="721" spans="24:24">
       <c r="X721" s="26"/>
     </row>
-    <row r="722" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="722" spans="24:24">
       <c r="X722" s="26"/>
     </row>
-    <row r="723" spans="24:24" x14ac:dyDescent="0.35">
+    <row r="723" spans="24:24">
       <c r="X723" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="59" orientation="landscape" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;LFacebook Database&amp;C&amp;D&amp;RDoane/Seward</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="18">
       <c r="B1" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:4" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" s="27" customFormat="1" ht="13.5" customHeight="1">
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -52499,7 +52503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4">
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
@@ -52507,7 +52511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4">
       <c r="C5" s="23" t="s">
         <v>39</v>
       </c>
@@ -52515,7 +52519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4">
       <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
@@ -52523,7 +52527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4">
       <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
@@ -52531,7 +52535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4">
       <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
@@ -52539,7 +52543,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4">
       <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
@@ -52547,7 +52551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4">
       <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
@@ -52555,7 +52559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4">
       <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
@@ -52563,7 +52567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4">
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
@@ -52571,7 +52575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4">
       <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
@@ -52579,7 +52583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4">
       <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
@@ -52587,7 +52591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4">
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
@@ -52595,7 +52599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4">
       <c r="C16" s="14" t="s">
         <v>29</v>
       </c>
@@ -52603,7 +52607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4">
       <c r="C17" s="14" t="s">
         <v>10</v>
       </c>
@@ -52611,7 +52615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4">
       <c r="C18" s="11" t="s">
         <v>11</v>
       </c>
@@ -52619,7 +52623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4">
       <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
@@ -52627,7 +52631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4">
       <c r="C20" s="19" t="s">
         <v>41</v>
       </c>
@@ -52635,7 +52639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4">
       <c r="C21" s="32" t="s">
         <v>24</v>
       </c>
@@ -52643,7 +52647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4">
       <c r="C22" s="33" t="s">
         <v>42</v>
       </c>
@@ -52651,7 +52655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4">
       <c r="B23" s="22" t="s">
         <v>38</v>
       </c>
@@ -52662,27 +52666,37 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4">
       <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="65" orientation="landscape" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;LFacebook Database&amp;C&amp;D&amp;RDoane/Seward</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>